--- a/Kundendaten_Vorjahr.xlsx
+++ b/Kundendaten_Vorjahr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telekom-my.sharepoint.de/personal/david_laudenberg_telekom_de/Documents/Aufgaben/Python/Python Summer School/python_schulung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200093143\Desktop\python_schulung-main\schulung_korrektur\python_schulung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{487E0783-1ADF-4630-8D28-6BB233A88188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183CFF08-309C-4663-B81C-595FF8BCFAD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0927E-3522-4593-BA93-060FE0231528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCEAB1D8-74B8-449A-898E-67C13A711013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCEAB1D8-74B8-449A-898E-67C13A711013}"/>
   </bookViews>
   <sheets>
     <sheet name="Kundendaten_Vorjahr" sheetId="1" r:id="rId1"/>
@@ -531,15 +531,17 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3902</v>
       </c>
@@ -579,7 +581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3254</v>
       </c>
@@ -599,7 +601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1543</v>
       </c>
@@ -619,7 +621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1546</v>
       </c>
@@ -639,7 +641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2466</v>
       </c>
@@ -659,7 +661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1354</v>
       </c>
@@ -679,7 +681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3564</v>
       </c>
@@ -699,7 +701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2386</v>
       </c>
@@ -719,7 +721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3456</v>
       </c>
@@ -753,7 +755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -765,7 +767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
